--- a/outputs/app-pdp-criteria-generator/buisness_analysis_senior_pdp.xlsx
+++ b/outputs/app-pdp-criteria-generator/buisness_analysis_senior_pdp.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>SkillCode</t>
   </si>
   <si>
+    <t>Skill Description</t>
+  </si>
+  <si>
     <t>SFIA Level</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>METL</t>
   </si>
   <si>
+    <t>Methods and tools</t>
+  </si>
+  <si>
     <t>Provides advice, guidance and expertise to promote adoption of methods and tools and adherence to policies and standards</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>BUSA</t>
   </si>
   <si>
+    <t>Business situation analysis</t>
+  </si>
+  <si>
     <t>Plans, manages and investigates business situation analysis where there is significant ambiguity and complexity</t>
   </si>
   <si>
@@ -139,6 +148,9 @@
     <t>FEAS</t>
   </si>
   <si>
+    <t>Feasibility assessment</t>
+  </si>
+  <si>
     <t>Manages investigative work to enable feasibility assessments</t>
   </si>
   <si>
@@ -154,6 +166,9 @@
     <t>REQM</t>
   </si>
   <si>
+    <t>Requirements definition and management</t>
+  </si>
+  <si>
     <t>Plans and drives scoping, requirements definition and prioritisation activities for large, complex  initiatives</t>
   </si>
   <si>
@@ -178,6 +193,9 @@
     <t>BPTS</t>
   </si>
   <si>
+    <t>Acceptance testing</t>
+  </si>
+  <si>
     <t>Plans and manages acceptance testing activity</t>
   </si>
   <si>
@@ -202,6 +220,9 @@
     <t>BPRE</t>
   </si>
   <si>
+    <t>Business process improvement</t>
+  </si>
+  <si>
     <t>Manages the execution of business process improvements</t>
   </si>
   <si>
@@ -223,6 +244,9 @@
     <t>DTAN</t>
   </si>
   <si>
+    <t>Data modelling and design</t>
+  </si>
+  <si>
     <t>Sets standards for data modelling and design tools and techniques, advises on their application and ensures compliance</t>
   </si>
   <si>
@@ -238,6 +262,9 @@
     <t>ITSP</t>
   </si>
   <si>
+    <t>Strategic planning</t>
+  </si>
+  <si>
     <t>Collates information and creates reports and insights to support strategy management processes</t>
   </si>
   <si>
@@ -256,6 +283,9 @@
     <t>STPL</t>
   </si>
   <si>
+    <t>Enterprise and business architecture</t>
+  </si>
+  <si>
     <t>Develops models and plans to drive the execution of the business strategy, taking advantage of opportunities to improve business performance</t>
   </si>
   <si>
@@ -268,6 +298,9 @@
     <t>INOV</t>
   </si>
   <si>
+    <t>Innovation</t>
+  </si>
+  <si>
     <t>Manages the innovation pipeline and executes innovation processes</t>
   </si>
   <si>
@@ -286,6 +319,9 @@
     <t>DEMM</t>
   </si>
   <si>
+    <t>Demand management</t>
+  </si>
+  <si>
     <t>Implements demand management analysis and  planning activities</t>
   </si>
   <si>
@@ -310,6 +346,9 @@
     <t>CNSL</t>
   </si>
   <si>
+    <t>Consultancy</t>
+  </si>
+  <si>
     <t>Takes responsibility for understanding client requirements, collecting data, delivering analysis and problem resolution</t>
   </si>
   <si>
@@ -328,6 +367,9 @@
     <t>BSMO</t>
   </si>
   <si>
+    <t>Business modelling</t>
+  </si>
+  <si>
     <t>Produces models in support of the business strategy</t>
   </si>
   <si>
@@ -346,6 +388,9 @@
     <t>OCDV</t>
   </si>
   <si>
+    <t>Organisational capability development</t>
+  </si>
+  <si>
     <t>Contributes to identifying new areas of capability improvement within the organisation which may be enhancements to skills, technology or processes</t>
   </si>
   <si>
@@ -364,6 +409,9 @@
     <t>CIPM</t>
   </si>
   <si>
+    <t>Organisational change management</t>
+  </si>
+  <si>
     <t>Develops the change management approach and a change management plan in collaboration with sponsors, users and project teams</t>
   </si>
   <si>
@@ -388,6 +436,9 @@
     <t>BENM</t>
   </si>
   <si>
+    <t>Benefits management</t>
+  </si>
+  <si>
     <t>Leads activities required in the realisation of the benefits of each part of the change programme</t>
   </si>
   <si>
@@ -406,6 +457,9 @@
     <t>PROD</t>
   </si>
   <si>
+    <t>Product management</t>
+  </si>
+  <si>
     <t>Acts as product owner/champion for one or more products or services</t>
   </si>
   <si>
@@ -436,6 +490,9 @@
     <t>UNAN</t>
   </si>
   <si>
+    <t>User experience analysis</t>
+  </si>
+  <si>
     <t>Determines the approaches to be used for user experience analysis</t>
   </si>
   <si>
@@ -451,6 +508,9 @@
     <t>PEMT</t>
   </si>
   <si>
+    <t>Performance management</t>
+  </si>
+  <si>
     <t>Forms, maintains and leads workgroups and individuals to achieve organisational objectives</t>
   </si>
   <si>
@@ -473,6 +533,9 @@
   </si>
   <si>
     <t>RLMT</t>
+  </si>
+  <si>
+    <t>Stakeholder relationship management</t>
   </si>
   <si>
     <t>Identifies the communications and relationship needs of stakeholder groups</t>
@@ -816,1854 +879,2253 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
+      <c r="E6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
       <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
+      <c r="E8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
       <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
       <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
+      <c r="E11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
       <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
+      <c r="E12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
       </c>
       <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
+      <c r="E13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
       </c>
       <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
+      <c r="E14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
       </c>
       <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>20</v>
+      <c r="E15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
       </c>
       <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
+      <c r="E16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
       </c>
       <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
+      <c r="E17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
       </c>
       <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
+      <c r="E18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
-        <v>25</v>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
       </c>
       <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>27</v>
+      <c r="E20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
       </c>
       <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>28</v>
+      <c r="E21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
       </c>
       <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
-        <v>29</v>
+      <c r="E22" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
-        <v>30</v>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
       </c>
       <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
-        <v>31</v>
+      <c r="E24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
       </c>
       <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
-        <v>32</v>
+      <c r="E25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
       </c>
       <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
-        <v>34</v>
+      <c r="E26" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
       </c>
       <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
         <v>2</v>
       </c>
-      <c r="D27" t="s">
-        <v>35</v>
+      <c r="E27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
       </c>
       <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="D28" t="s">
-        <v>36</v>
+      <c r="E28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" t="s">
-        <v>37</v>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
       </c>
       <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="D30" t="s">
-        <v>38</v>
+      <c r="E30" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
       </c>
       <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
-        <v>39</v>
+      <c r="E31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
       </c>
       <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>41</v>
+      <c r="E32" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
       </c>
       <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
-        <v>42</v>
+      <c r="E33" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
       </c>
       <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
-        <v>43</v>
+      <c r="E34" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
-        <v>44</v>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
       </c>
       <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
-        <v>46</v>
+      <c r="E36" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
       </c>
       <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
-        <v>47</v>
+      <c r="E37" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
       </c>
       <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
         <v>3</v>
       </c>
-      <c r="D38" t="s">
-        <v>48</v>
+      <c r="E38" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" t="s">
-        <v>49</v>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
       </c>
       <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
         <v>5</v>
       </c>
-      <c r="D40" t="s">
-        <v>50</v>
+      <c r="E40" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
       </c>
       <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
         <v>6</v>
       </c>
-      <c r="D41" t="s">
-        <v>51</v>
+      <c r="E41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
       </c>
       <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
         <v>7</v>
       </c>
-      <c r="D42" t="s">
-        <v>52</v>
+      <c r="E42" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
       </c>
       <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
         <v>1</v>
       </c>
-      <c r="D43" t="s">
-        <v>54</v>
+      <c r="E43" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
       </c>
       <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
-        <v>55</v>
+      <c r="E44" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
       </c>
       <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
         <v>3</v>
       </c>
-      <c r="D45" t="s">
-        <v>56</v>
+      <c r="E45" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
-      <c r="D46" t="s">
-        <v>57</v>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
       </c>
       <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
         <v>5</v>
       </c>
-      <c r="D47" t="s">
-        <v>58</v>
+      <c r="E47" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
       </c>
       <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
-        <v>59</v>
+      <c r="E48" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
       </c>
       <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
         <v>7</v>
       </c>
-      <c r="D49" t="s">
-        <v>60</v>
+      <c r="E49" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
       </c>
       <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
         <v>1</v>
       </c>
-      <c r="D50" t="s">
-        <v>62</v>
+      <c r="E50" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
       </c>
       <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
         <v>2</v>
       </c>
-      <c r="D51" t="s">
-        <v>63</v>
+      <c r="E51" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
       </c>
       <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
         <v>3</v>
       </c>
-      <c r="D52" t="s">
-        <v>64</v>
+      <c r="E52" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
-      <c r="D53" t="s">
-        <v>65</v>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
       </c>
       <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
         <v>5</v>
       </c>
-      <c r="D54" t="s">
-        <v>66</v>
+      <c r="E54" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
       </c>
       <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
         <v>6</v>
       </c>
-      <c r="D55" t="s">
-        <v>67</v>
+      <c r="E55" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
       </c>
       <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
         <v>1</v>
       </c>
-      <c r="D56" t="s">
-        <v>69</v>
+      <c r="E56" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
       </c>
       <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
         <v>2</v>
       </c>
-      <c r="D57" t="s">
-        <v>70</v>
+      <c r="E57" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
       </c>
       <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
         <v>3</v>
       </c>
-      <c r="D58" t="s">
-        <v>71</v>
+      <c r="E58" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
       </c>
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" t="s">
-        <v>72</v>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="60"/>
     <row r="61">
       <c r="A61" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
       </c>
       <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
         <v>1</v>
       </c>
-      <c r="D61" t="s">
-        <v>74</v>
+      <c r="E61" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
       </c>
       <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="D62" t="s">
-        <v>75</v>
+      <c r="E62" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
       </c>
       <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
         <v>3</v>
       </c>
-      <c r="D63" t="s">
-        <v>76</v>
+      <c r="E63" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
-      <c r="D64" t="s">
-        <v>77</v>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
       </c>
       <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
         <v>5</v>
       </c>
-      <c r="D65" t="s">
-        <v>78</v>
+      <c r="E65" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66">
-        <v>4</v>
+        <v>88</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
       </c>
       <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
         <v>1</v>
       </c>
-      <c r="D66" t="s">
-        <v>80</v>
+      <c r="E66" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67">
-        <v>4</v>
+        <v>88</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
       </c>
       <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
         <v>2</v>
       </c>
-      <c r="D67" t="s">
-        <v>81</v>
+      <c r="E67" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68">
-        <v>4</v>
+        <v>88</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
       </c>
       <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
         <v>3</v>
       </c>
-      <c r="D68" t="s">
-        <v>82</v>
+      <c r="E68" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
       </c>
       <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
         <v>1</v>
       </c>
-      <c r="D69" t="s">
-        <v>84</v>
+      <c r="E69" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="B70" t="s">
+        <v>94</v>
       </c>
       <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
         <v>2</v>
       </c>
-      <c r="D70" t="s">
-        <v>85</v>
+      <c r="E70" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
       </c>
       <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
         <v>3</v>
       </c>
-      <c r="D71" t="s">
-        <v>86</v>
+      <c r="E71" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="B72" t="s">
+        <v>94</v>
       </c>
       <c r="C72">
         <v>4</v>
       </c>
-      <c r="D72" t="s">
-        <v>87</v>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
+        <v>94</v>
       </c>
       <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
         <v>5</v>
       </c>
-      <c r="D73" t="s">
-        <v>88</v>
+      <c r="E73" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="B74" t="s">
+        <v>101</v>
       </c>
       <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
         <v>1</v>
       </c>
-      <c r="D74" t="s">
-        <v>90</v>
+      <c r="E74" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
       </c>
       <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
         <v>2</v>
       </c>
-      <c r="D75" t="s">
-        <v>91</v>
+      <c r="E75" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
       </c>
       <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
         <v>3</v>
       </c>
-      <c r="D76" t="s">
-        <v>92</v>
+      <c r="E76" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
       </c>
       <c r="C77">
         <v>4</v>
       </c>
-      <c r="D77" t="s">
-        <v>93</v>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
       </c>
       <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
         <v>5</v>
       </c>
-      <c r="D78" t="s">
-        <v>94</v>
+      <c r="E78" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
-      </c>
-      <c r="B79">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="B79" t="s">
+        <v>101</v>
       </c>
       <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
         <v>6</v>
       </c>
-      <c r="D79" t="s">
-        <v>95</v>
+      <c r="E79" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
+        <v>101</v>
       </c>
       <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
         <v>7</v>
       </c>
-      <c r="D80" t="s">
-        <v>96</v>
+      <c r="E80" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81">
-        <v>4</v>
+        <v>109</v>
+      </c>
+      <c r="B81" t="s">
+        <v>110</v>
       </c>
       <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
         <v>1</v>
       </c>
-      <c r="D81" t="s">
-        <v>98</v>
+      <c r="E81" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>97</v>
-      </c>
-      <c r="B82">
-        <v>4</v>
+        <v>109</v>
+      </c>
+      <c r="B82" t="s">
+        <v>110</v>
       </c>
       <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
         <v>2</v>
       </c>
-      <c r="D82" t="s">
-        <v>99</v>
+      <c r="E82" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>97</v>
-      </c>
-      <c r="B83">
-        <v>4</v>
+        <v>109</v>
+      </c>
+      <c r="B83" t="s">
+        <v>110</v>
       </c>
       <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
         <v>3</v>
       </c>
-      <c r="D83" t="s">
-        <v>100</v>
+      <c r="E83" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84">
-        <v>4</v>
+        <v>109</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
       </c>
       <c r="C84">
         <v>4</v>
       </c>
-      <c r="D84" t="s">
-        <v>101</v>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>97</v>
-      </c>
-      <c r="B85">
-        <v>4</v>
+        <v>109</v>
+      </c>
+      <c r="B85" t="s">
+        <v>110</v>
       </c>
       <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
         <v>5</v>
       </c>
-      <c r="D85" t="s">
-        <v>102</v>
+      <c r="E85" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>103</v>
-      </c>
-      <c r="B86">
-        <v>4</v>
+        <v>116</v>
+      </c>
+      <c r="B86" t="s">
+        <v>117</v>
       </c>
       <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
         <v>1</v>
       </c>
-      <c r="D86" t="s">
-        <v>104</v>
+      <c r="E86" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87">
-        <v>4</v>
+        <v>116</v>
+      </c>
+      <c r="B87" t="s">
+        <v>117</v>
       </c>
       <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
         <v>2</v>
       </c>
-      <c r="D87" t="s">
-        <v>105</v>
+      <c r="E87" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>103</v>
-      </c>
-      <c r="B88">
-        <v>4</v>
+        <v>116</v>
+      </c>
+      <c r="B88" t="s">
+        <v>117</v>
       </c>
       <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
         <v>3</v>
       </c>
-      <c r="D88" t="s">
-        <v>106</v>
+      <c r="E88" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>103</v>
-      </c>
-      <c r="B89">
-        <v>4</v>
+        <v>116</v>
+      </c>
+      <c r="B89" t="s">
+        <v>117</v>
       </c>
       <c r="C89">
         <v>4</v>
       </c>
-      <c r="D89" t="s">
-        <v>107</v>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90">
-        <v>4</v>
+        <v>116</v>
+      </c>
+      <c r="B90" t="s">
+        <v>117</v>
       </c>
       <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
         <v>5</v>
       </c>
-      <c r="D90" t="s">
-        <v>108</v>
+      <c r="E90" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>109</v>
-      </c>
-      <c r="B91">
-        <v>4</v>
+        <v>123</v>
+      </c>
+      <c r="B91" t="s">
+        <v>124</v>
       </c>
       <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
         <v>1</v>
       </c>
-      <c r="D91" t="s">
-        <v>110</v>
+      <c r="E91" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>109</v>
-      </c>
-      <c r="B92">
-        <v>4</v>
+        <v>123</v>
+      </c>
+      <c r="B92" t="s">
+        <v>124</v>
       </c>
       <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
         <v>2</v>
       </c>
-      <c r="D92" t="s">
-        <v>111</v>
+      <c r="E92" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>109</v>
-      </c>
-      <c r="B93">
-        <v>4</v>
+        <v>123</v>
+      </c>
+      <c r="B93" t="s">
+        <v>124</v>
       </c>
       <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
         <v>3</v>
       </c>
-      <c r="D93" t="s">
-        <v>112</v>
+      <c r="E93" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>109</v>
-      </c>
-      <c r="B94">
-        <v>4</v>
+        <v>123</v>
+      </c>
+      <c r="B94" t="s">
+        <v>124</v>
       </c>
       <c r="C94">
         <v>4</v>
       </c>
-      <c r="D94" t="s">
-        <v>113</v>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>109</v>
-      </c>
-      <c r="B95">
-        <v>4</v>
+        <v>123</v>
+      </c>
+      <c r="B95" t="s">
+        <v>124</v>
       </c>
       <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
         <v>5</v>
       </c>
-      <c r="D95" t="s">
-        <v>114</v>
+      <c r="E95" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>115</v>
-      </c>
-      <c r="B96">
-        <v>4</v>
+        <v>130</v>
+      </c>
+      <c r="B96" t="s">
+        <v>131</v>
       </c>
       <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
         <v>1</v>
       </c>
-      <c r="D96" t="s">
-        <v>116</v>
+      <c r="E96" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>115</v>
-      </c>
-      <c r="B97">
-        <v>4</v>
+        <v>130</v>
+      </c>
+      <c r="B97" t="s">
+        <v>131</v>
       </c>
       <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
         <v>2</v>
       </c>
-      <c r="D97" t="s">
-        <v>117</v>
+      <c r="E97" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>115</v>
-      </c>
-      <c r="B98">
-        <v>4</v>
+        <v>130</v>
+      </c>
+      <c r="B98" t="s">
+        <v>131</v>
       </c>
       <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
         <v>3</v>
       </c>
-      <c r="D98" t="s">
-        <v>118</v>
+      <c r="E98" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>115</v>
-      </c>
-      <c r="B99">
-        <v>4</v>
+        <v>130</v>
+      </c>
+      <c r="B99" t="s">
+        <v>131</v>
       </c>
       <c r="C99">
         <v>4</v>
       </c>
-      <c r="D99" t="s">
-        <v>119</v>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>115</v>
-      </c>
-      <c r="B100">
-        <v>4</v>
+        <v>130</v>
+      </c>
+      <c r="B100" t="s">
+        <v>131</v>
       </c>
       <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
         <v>5</v>
       </c>
-      <c r="D100" t="s">
-        <v>120</v>
+      <c r="E100" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>115</v>
-      </c>
-      <c r="B101">
-        <v>4</v>
+        <v>130</v>
+      </c>
+      <c r="B101" t="s">
+        <v>131</v>
       </c>
       <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
         <v>6</v>
       </c>
-      <c r="D101" t="s">
-        <v>121</v>
+      <c r="E101" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>115</v>
-      </c>
-      <c r="B102">
-        <v>4</v>
+        <v>130</v>
+      </c>
+      <c r="B102" t="s">
+        <v>131</v>
       </c>
       <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
         <v>7</v>
       </c>
-      <c r="D102" t="s">
-        <v>122</v>
+      <c r="E102" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>123</v>
-      </c>
-      <c r="B103">
-        <v>4</v>
+        <v>139</v>
+      </c>
+      <c r="B103" t="s">
+        <v>140</v>
       </c>
       <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
         <v>1</v>
       </c>
-      <c r="D103" t="s">
-        <v>124</v>
+      <c r="E103" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>123</v>
-      </c>
-      <c r="B104">
-        <v>4</v>
+        <v>139</v>
+      </c>
+      <c r="B104" t="s">
+        <v>140</v>
       </c>
       <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
         <v>2</v>
       </c>
-      <c r="D104" t="s">
-        <v>125</v>
+      <c r="E104" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>123</v>
-      </c>
-      <c r="B105">
-        <v>4</v>
+        <v>139</v>
+      </c>
+      <c r="B105" t="s">
+        <v>140</v>
       </c>
       <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
         <v>3</v>
       </c>
-      <c r="D105" t="s">
-        <v>126</v>
+      <c r="E105" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>123</v>
-      </c>
-      <c r="B106">
-        <v>4</v>
+        <v>139</v>
+      </c>
+      <c r="B106" t="s">
+        <v>140</v>
       </c>
       <c r="C106">
         <v>4</v>
       </c>
-      <c r="D106" t="s">
-        <v>127</v>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>123</v>
-      </c>
-      <c r="B107">
-        <v>4</v>
+        <v>139</v>
+      </c>
+      <c r="B107" t="s">
+        <v>140</v>
       </c>
       <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
         <v>5</v>
       </c>
-      <c r="D107" t="s">
-        <v>128</v>
+      <c r="E107" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>129</v>
-      </c>
-      <c r="B108">
-        <v>4</v>
+        <v>146</v>
+      </c>
+      <c r="B108" t="s">
+        <v>147</v>
       </c>
       <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
         <v>1</v>
       </c>
-      <c r="D108" t="s">
-        <v>130</v>
+      <c r="E108" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>129</v>
-      </c>
-      <c r="B109">
-        <v>4</v>
+        <v>146</v>
+      </c>
+      <c r="B109" t="s">
+        <v>147</v>
       </c>
       <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
         <v>2</v>
       </c>
-      <c r="D109" t="s">
-        <v>131</v>
+      <c r="E109" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>129</v>
-      </c>
-      <c r="B110">
-        <v>4</v>
+        <v>146</v>
+      </c>
+      <c r="B110" t="s">
+        <v>147</v>
       </c>
       <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
         <v>3</v>
       </c>
-      <c r="D110" t="s">
-        <v>132</v>
+      <c r="E110" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>129</v>
-      </c>
-      <c r="B111">
-        <v>4</v>
+        <v>146</v>
+      </c>
+      <c r="B111" t="s">
+        <v>147</v>
       </c>
       <c r="C111">
         <v>4</v>
       </c>
-      <c r="D111" t="s">
-        <v>133</v>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>129</v>
-      </c>
-      <c r="B112">
-        <v>4</v>
+        <v>146</v>
+      </c>
+      <c r="B112" t="s">
+        <v>147</v>
       </c>
       <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
         <v>5</v>
       </c>
-      <c r="D112" t="s">
-        <v>134</v>
+      <c r="E112" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>129</v>
-      </c>
-      <c r="B113">
-        <v>4</v>
+        <v>146</v>
+      </c>
+      <c r="B113" t="s">
+        <v>147</v>
       </c>
       <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
         <v>6</v>
       </c>
-      <c r="D113" t="s">
-        <v>135</v>
+      <c r="E113" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>129</v>
-      </c>
-      <c r="B114">
-        <v>4</v>
+        <v>146</v>
+      </c>
+      <c r="B114" t="s">
+        <v>147</v>
       </c>
       <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
         <v>7</v>
       </c>
-      <c r="D114" t="s">
-        <v>136</v>
+      <c r="E114" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>129</v>
-      </c>
-      <c r="B115">
-        <v>4</v>
+        <v>146</v>
+      </c>
+      <c r="B115" t="s">
+        <v>147</v>
       </c>
       <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
         <v>8</v>
       </c>
-      <c r="D115" t="s">
-        <v>137</v>
+      <c r="E115" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>129</v>
-      </c>
-      <c r="B116">
-        <v>4</v>
+        <v>146</v>
+      </c>
+      <c r="B116" t="s">
+        <v>147</v>
       </c>
       <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
         <v>9</v>
       </c>
-      <c r="D116" t="s">
-        <v>138</v>
+      <c r="E116" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>139</v>
-      </c>
-      <c r="B117">
-        <v>4</v>
+        <v>157</v>
+      </c>
+      <c r="B117" t="s">
+        <v>158</v>
       </c>
       <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
         <v>1</v>
       </c>
-      <c r="D117" t="s">
-        <v>140</v>
+      <c r="E117" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>139</v>
-      </c>
-      <c r="B118">
-        <v>4</v>
+        <v>157</v>
+      </c>
+      <c r="B118" t="s">
+        <v>158</v>
       </c>
       <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
         <v>2</v>
       </c>
-      <c r="D118" t="s">
-        <v>141</v>
+      <c r="E118" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>139</v>
-      </c>
-      <c r="B119">
-        <v>4</v>
+        <v>157</v>
+      </c>
+      <c r="B119" t="s">
+        <v>158</v>
       </c>
       <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
         <v>3</v>
       </c>
-      <c r="D119" t="s">
-        <v>142</v>
+      <c r="E119" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>139</v>
-      </c>
-      <c r="B120">
-        <v>4</v>
+        <v>157</v>
+      </c>
+      <c r="B120" t="s">
+        <v>158</v>
       </c>
       <c r="C120">
         <v>4</v>
       </c>
-      <c r="D120" t="s">
-        <v>143</v>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>144</v>
-      </c>
-      <c r="B121">
-        <v>4</v>
+        <v>163</v>
+      </c>
+      <c r="B121" t="s">
+        <v>164</v>
       </c>
       <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
         <v>1</v>
       </c>
-      <c r="D121" t="s">
-        <v>145</v>
+      <c r="E121" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>144</v>
-      </c>
-      <c r="B122">
-        <v>4</v>
+        <v>163</v>
+      </c>
+      <c r="B122" t="s">
+        <v>164</v>
       </c>
       <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
         <v>2</v>
       </c>
-      <c r="D122" t="s">
-        <v>146</v>
+      <c r="E122" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>144</v>
-      </c>
-      <c r="B123">
-        <v>4</v>
+        <v>163</v>
+      </c>
+      <c r="B123" t="s">
+        <v>164</v>
       </c>
       <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123">
         <v>3</v>
       </c>
-      <c r="D123" t="s">
-        <v>147</v>
+      <c r="E123" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>144</v>
-      </c>
-      <c r="B124">
-        <v>4</v>
+        <v>163</v>
+      </c>
+      <c r="B124" t="s">
+        <v>164</v>
       </c>
       <c r="C124">
         <v>4</v>
       </c>
-      <c r="D124" t="s">
-        <v>148</v>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>144</v>
-      </c>
-      <c r="B125">
-        <v>4</v>
+        <v>163</v>
+      </c>
+      <c r="B125" t="s">
+        <v>164</v>
       </c>
       <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
         <v>5</v>
       </c>
-      <c r="D125" t="s">
-        <v>149</v>
+      <c r="E125" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>144</v>
-      </c>
-      <c r="B126">
-        <v>4</v>
+        <v>163</v>
+      </c>
+      <c r="B126" t="s">
+        <v>164</v>
       </c>
       <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126">
         <v>6</v>
       </c>
-      <c r="D126" t="s">
-        <v>150</v>
+      <c r="E126" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>144</v>
-      </c>
-      <c r="B127">
-        <v>4</v>
+        <v>163</v>
+      </c>
+      <c r="B127" t="s">
+        <v>164</v>
       </c>
       <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
         <v>7</v>
       </c>
-      <c r="D127" t="s">
-        <v>151</v>
+      <c r="E127" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>152</v>
-      </c>
-      <c r="B128">
-        <v>4</v>
+        <v>172</v>
+      </c>
+      <c r="B128" t="s">
+        <v>173</v>
       </c>
       <c r="C128">
+        <v>4</v>
+      </c>
+      <c r="D128">
         <v>1</v>
       </c>
-      <c r="D128" t="s">
-        <v>153</v>
+      <c r="E128" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>152</v>
-      </c>
-      <c r="B129">
-        <v>4</v>
+        <v>172</v>
+      </c>
+      <c r="B129" t="s">
+        <v>173</v>
       </c>
       <c r="C129">
+        <v>4</v>
+      </c>
+      <c r="D129">
         <v>2</v>
       </c>
-      <c r="D129" t="s">
-        <v>154</v>
+      <c r="E129" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>152</v>
-      </c>
-      <c r="B130">
-        <v>4</v>
+        <v>172</v>
+      </c>
+      <c r="B130" t="s">
+        <v>173</v>
       </c>
       <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
         <v>3</v>
       </c>
-      <c r="D130" t="s">
-        <v>155</v>
+      <c r="E130" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>152</v>
-      </c>
-      <c r="B131">
-        <v>4</v>
+        <v>172</v>
+      </c>
+      <c r="B131" t="s">
+        <v>173</v>
       </c>
       <c r="C131">
         <v>4</v>
       </c>
-      <c r="D131" t="s">
-        <v>156</v>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>152</v>
-      </c>
-      <c r="B132">
-        <v>4</v>
+        <v>172</v>
+      </c>
+      <c r="B132" t="s">
+        <v>173</v>
       </c>
       <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132">
         <v>5</v>
       </c>
-      <c r="D132" t="s">
-        <v>157</v>
+      <c r="E132" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>152</v>
-      </c>
-      <c r="B133">
-        <v>4</v>
+        <v>172</v>
+      </c>
+      <c r="B133" t="s">
+        <v>173</v>
       </c>
       <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133">
         <v>6</v>
       </c>
-      <c r="D133" t="s">
-        <v>158</v>
+      <c r="E133" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>152</v>
-      </c>
-      <c r="B134">
-        <v>4</v>
+        <v>172</v>
+      </c>
+      <c r="B134" t="s">
+        <v>173</v>
       </c>
       <c r="C134">
+        <v>4</v>
+      </c>
+      <c r="D134">
         <v>7</v>
       </c>
-      <c r="D134" t="s">
-        <v>159</v>
+      <c r="E134" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
